--- a/doc/contents/materials/PipelineProfiles_A45.xlsx
+++ b/doc/contents/materials/PipelineProfiles_A45.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1710" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="390" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sponza" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>v1453</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>v1469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1475</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000;[Red]0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -170,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,28 +186,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +529,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -537,8 +548,11 @@
       <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,15 +565,18 @@
       <c r="D2" s="6">
         <v>14.141</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <f>11.863+1.501</f>
         <v>13.363999999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>13.222</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <v>13.172000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -572,10 +589,11 @@
       <c r="D3" s="6">
         <v>3.899</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,10 +608,11 @@
         <f>5.781+1.351</f>
         <v>7.1319999999999997</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -612,8 +631,11 @@
       <c r="F5" s="6">
         <v>9.1150000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <v>9.2880000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,8 +654,11 @@
       <c r="F6" s="6">
         <v>6.008</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,8 +677,11 @@
       <c r="F7" s="6">
         <v>46.786999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <v>46.015000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -677,8 +705,12 @@
         <f>F9-SUM(F2:F7)</f>
         <v>1.2180000000000035</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="7">
+        <f>G9-SUM(G2:G7)</f>
+        <v>1.2716666666666612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -702,8 +734,12 @@
         <f>1000/F10</f>
         <v>76.350000000000009</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <f>1000/G10</f>
+        <v>75.86666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -725,11 +761,16 @@
         <f>60/4.581</f>
         <v>13.097576948264569</v>
       </c>
+      <c r="G10" s="6">
+        <f>60/4.552</f>
+        <v>13.181019332161688</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,20 +780,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="14"/>
+    <col min="2" max="4" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,33 +806,40 @@
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>1.02</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <f>3.238+0.158</f>
         <v>3.3959999999999999</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>3.4009999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E2" s="13">
+        <v>3.2090000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>1.0349999999999999</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,10 +847,11 @@
         <f>0.821+0.128</f>
         <v>0.94899999999999995</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +864,11 @@
       <c r="D5" s="6">
         <v>1.401</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
+        <v>1.3859999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +881,11 @@
       <c r="D6" s="6">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E6" s="6">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +898,11 @@
       <c r="D7" s="6">
         <v>6.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -860,8 +918,12 @@
         <f>D9-SUM(D2:D7)</f>
         <v>2.4666666666668391E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="7">
+        <f>E9-SUM(E2:E7)</f>
+        <v>3.0666666666668618E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -877,8 +939,12 @@
         <f>1000/D10</f>
         <v>12.646666666666668</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <f>1000/E10</f>
+        <v>12.376666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,13 +960,19 @@
         <f>300/3.794</f>
         <v>79.072219293621501</v>
       </c>
+      <c r="E10" s="6">
+        <f>300/3.713</f>
+        <v>80.797199030433603</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>